--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2624.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2624.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7870969792822251</v>
+        <v>1.26580536365509</v>
       </c>
       <c r="B1">
-        <v>1.665071496168492</v>
+        <v>2.302929401397705</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.806153535842896</v>
       </c>
       <c r="D1">
-        <v>1.726110781844063</v>
+        <v>2.794040441513062</v>
       </c>
       <c r="E1">
-        <v>0.9053590802822035</v>
+        <v>1.354339241981506</v>
       </c>
     </row>
   </sheetData>
